--- a/PCB/SCHEMATICS/FINAL SUBMISSION/Postion file.xlsx
+++ b/PCB/SCHEMATICS/FINAL SUBMISSION/Postion file.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3520\Desktop\EEE3088-group-09\PCB\SCHEMATICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3520\Desktop\EEE3088-group-09\PCB\SCHEMATICS\FINAL SUBMISSION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C75DE8-992D-4C07-87F4-C3355F654D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A784A8C3-6874-450A-9A79-C7B08D5EE90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="184">
   <si>
     <t>C1</t>
   </si>
@@ -135,15 +148,9 @@
     <t>-103.799975</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
     <t>175.768000</t>
   </si>
   <si>
-    <t>-50.974000</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
@@ -195,9 +202,6 @@
     <t>MicroXNJ1</t>
   </si>
   <si>
-    <t>96.350394</t>
-  </si>
-  <si>
     <t>-81.174943</t>
   </si>
   <si>
@@ -435,24 +439,6 @@
     <t>R29</t>
   </si>
   <si>
-    <t>161.726500</t>
-  </si>
-  <si>
-    <t>-96.153500</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>157.586500</t>
-  </si>
-  <si>
-    <t>-96.253500</t>
-  </si>
-  <si>
     <t>R32</t>
   </si>
   <si>
@@ -552,15 +538,6 @@
     <t>-137.608504</t>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>167.821496</t>
-  </si>
-  <si>
-    <t>-135.931084</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -592,6 +569,30 @@
   </si>
   <si>
     <t>Rotation</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>94.000000</t>
+  </si>
+  <si>
+    <t>162.000000</t>
+  </si>
+  <si>
+    <t>160.000000</t>
+  </si>
+  <si>
+    <t>157.000000</t>
+  </si>
+  <si>
+    <t>-96.432817</t>
+  </si>
+  <si>
+    <t>-97.432817</t>
   </si>
 </sst>
 </file>
@@ -734,7 +735,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,8 +915,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1030,6 +1037,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1075,8 +1119,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1435,1057 +1485,1054 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
+        <v>51</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
+      <c r="D21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
+      <c r="D23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
+      <c r="D26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
+      <c r="D31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>15</v>
+      <c r="D32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
       </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
+      <c r="D33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
+      <c r="D35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C36" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
+      <c r="D36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C37" t="s">
         <v>107</v>
       </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>15</v>
+      <c r="D37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C38" t="s">
         <v>110</v>
       </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C39" t="s">
         <v>113</v>
       </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
+      <c r="D39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C41" t="s">
         <v>119</v>
       </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C42" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>3</v>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C43" t="s">
         <v>125</v>
       </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>128</v>
       </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
         <v>130</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="B48" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>143</v>
       </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>146</v>
       </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -2496,13 +2543,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
